--- a/论文写作/农作物区域分布情况.xlsx
+++ b/论文写作/农作物区域分布情况.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019\IR.Paper\论文写作\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F44FE2D-11F7-4A11-9531-A13F8FCE2509}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="双季稻" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>数据库：分省年度数据</t>
   </si>
@@ -582,6 +588,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2015</t>
     </r>
@@ -598,6 +605,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -614,6 +622,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2012</t>
     </r>
@@ -630,6 +639,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -646,6 +656,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2000</t>
     </r>
@@ -662,6 +673,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -678,6 +690,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>60</t>
     </r>
@@ -694,6 +707,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -710,6 +724,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>51</t>
     </r>
@@ -726,6 +741,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2004</t>
     </r>
@@ -742,6 +758,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -758,6 +775,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>35</t>
     </r>
@@ -774,6 +792,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2013</t>
     </r>
@@ -790,6 +809,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>100</t>
     </r>
@@ -806,6 +826,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2006</t>
     </r>
@@ -822,6 +843,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -838,6 +860,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2006</t>
     </r>
@@ -854,6 +877,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>28</t>
     </r>
@@ -982,6 +1006,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>MACHAN</t>
     </r>
@@ -1014,6 +1039,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(OT)</t>
     </r>
@@ -1990,14 +2016,118 @@
   </si>
   <si>
     <t>单一玉米型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）玉米清种。约占玉米面积的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上，分布在东北三省平原和内蒙古、陕西、甘肃、山西、河北的北部高寒地区。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）春小麦套种玉米。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年代以后，在陕西北部、山西北部和辽宁、甘肃、内蒙古部分水肥条件较好的地区逐渐形成春小麦套种玉米的种植方式。主要采用宽畦播种小麦，畦埂套种或育苗移栽春玉米的方式，一般可增产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>20-30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2005,12 +2135,14 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2099,6 +2231,12 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2244,7 +2382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2314,33 +2452,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2439,83 +2550,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2564,7 +2641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2597,9 +2674,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2632,6 +2726,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2807,11 +2918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2826,27 +2937,27 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3306,70 +3417,70 @@
       <c r="G15" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
       <c r="J18" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="J20" s="33" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="J20" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
       <c r="J21" s="22" t="s">
         <v>29</v>
       </c>
@@ -3382,14 +3493,14 @@
       <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
       <c r="J22" s="22" t="s">
         <v>26</v>
       </c>
@@ -3402,138 +3513,138 @@
       <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="J23" s="33" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="J23" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
     </row>
     <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="J24" s="33" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="J24" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
     </row>
     <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="J25" s="33" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="J25" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
     </row>
     <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
@@ -3542,231 +3653,239 @@
       <c r="O31" s="24"/>
     </row>
     <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="J32" s="34" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="J32" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="J37" s="26" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="J37" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="A41" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+    </row>
+    <row r="42" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="50" spans="10:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
     </row>
     <row r="51" spans="10:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
     </row>
   </sheetData>
   <sortState ref="A5:L15">
     <sortCondition descending="1" ref="G5:G15"/>
   </sortState>
-  <mergeCells count="14">
-    <mergeCell ref="J46:O48"/>
-    <mergeCell ref="J50:O51"/>
-    <mergeCell ref="J37:O44"/>
-    <mergeCell ref="J28:O30"/>
-    <mergeCell ref="J32:O35"/>
+  <mergeCells count="15">
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="A29:H40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:L2"/>
@@ -3776,6 +3895,11 @@
     <mergeCell ref="J23:Q23"/>
     <mergeCell ref="J24:Q24"/>
     <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J46:O48"/>
+    <mergeCell ref="J50:O51"/>
+    <mergeCell ref="J37:O44"/>
+    <mergeCell ref="J28:O30"/>
+    <mergeCell ref="J32:O35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3785,10 +3909,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -3801,14 +3925,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="N1" s="53" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="N1" s="44" t="s">
         <v>105</v>
       </c>
       <c r="O1"/>
@@ -3817,523 +3941,523 @@
       <c r="R1"/>
     </row>
     <row r="2" spans="7:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="47" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="7:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="N3" s="50" t="s">
+      <c r="K3" s="36"/>
+      <c r="N3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="N4" s="52" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="N4" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="7:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="N5" s="50" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="N5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="N6" s="52" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="N6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="N7" s="52" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="N7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="N8" s="52" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="N8" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="N9" s="52" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="N9" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="7:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="N10" s="52" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="N10" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="7:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="N11" s="52" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="N11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="N12" s="52" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="N12" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="7:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="N13" s="50" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="N13" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="N14" s="52" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="N14" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="7:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="N15" s="52" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="N15" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="N16" s="52" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="N16" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="7:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="N17" s="52" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="N17" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="N18" s="52" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="N18" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="N19" s="52" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="N19" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="N20" s="52" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="N20" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="7:19" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="N21" s="52" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="N21" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="7:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="N22" s="50" t="s">
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="N22" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="7:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="N23" s="52" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="N23" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="7:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="N24" s="52" t="s">
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="N24" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="N25" s="52" t="s">
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="N25" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="7:19" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="N26" s="52" t="s">
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="N26" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
     </row>
     <row r="27" spans="7:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="N27" s="50" t="s">
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="N27" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="7:19" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="N28" s="52" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="N28" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="7:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="N29" s="57" t="s">
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="N29" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
     </row>
     <row r="30" spans="7:19" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="N30" s="59" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="N30" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="61"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="52"/>
     </row>
     <row r="31" spans="7:19" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="N31" s="62" t="s">
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="N31" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="44"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="35"/>
     </row>
     <row r="32" spans="7:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="7:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="7:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -4344,11 +4468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J7:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:R14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4368,111 +4492,111 @@
       </c>
     </row>
     <row r="8" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="72" t="s">
+      <c r="L8" s="55"/>
+      <c r="M8" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="64" t="s">
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="R8" s="65"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71" t="s">
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="71" t="s">
+      <c r="O9" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="P9" s="71" t="s">
+      <c r="P9" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="71" t="s">
+      <c r="Q9" s="61"/>
+      <c r="R9" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
     </row>
     <row r="13" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
     </row>
     <row r="14" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
